--- a/documents/evaluation_3.xlsx
+++ b/documents/evaluation_3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="49">
   <si>
     <t>Off-Line</t>
   </si>
@@ -119,9 +119,6 @@
     <t>avg data eth CO.txt</t>
   </si>
   <si>
-    <t>vig.  0.01</t>
-  </si>
-  <si>
     <t>M=200.000</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>ethylene_CO_2sensor.txt</t>
+  </si>
+  <si>
+    <t>THETA=0.2</t>
   </si>
 </sst>
 </file>
@@ -312,16 +312,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,11 +522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306180976"/>
-        <c:axId val="306179016"/>
+        <c:axId val="206148072"/>
+        <c:axId val="206143368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306180976"/>
+        <c:axId val="206148072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306179016"/>
+        <c:crossAx val="206143368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -581,7 +581,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306179016"/>
+        <c:axId val="206143368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306180976"/>
+        <c:crossAx val="206148072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -871,11 +871,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306180584"/>
-        <c:axId val="306179800"/>
+        <c:axId val="206147680"/>
+        <c:axId val="206144152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306180584"/>
+        <c:axId val="206147680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306179800"/>
+        <c:crossAx val="206144152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -930,7 +930,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306179800"/>
+        <c:axId val="206144152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306180584"/>
+        <c:crossAx val="206147680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1138,7 +1138,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$F$34:$K$34</c:f>
+              <c:f>Tabelle1!$F$46:$K$46</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1211,7 +1211,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$F$34:$K$34</c:f>
+              <c:f>Tabelle1!$F$46:$K$46</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1284,7 +1284,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$F$34:$K$34</c:f>
+              <c:f>Tabelle1!$F$46:$K$46</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1337,8 +1337,80 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Theta 0.2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$F$46:$K$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>vig.  0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vig.  0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vig.  0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>vig.  0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vig.  0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>vig. 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$48:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40760000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1347,11 +1419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="378106184"/>
-        <c:axId val="378110104"/>
+        <c:axId val="206141408"/>
+        <c:axId val="206140624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378106184"/>
+        <c:axId val="206141408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378110104"/>
+        <c:crossAx val="206140624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1458,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378110104"/>
+        <c:axId val="206140624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378106184"/>
+        <c:crossAx val="206141408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1965,11 +2037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="149505960"/>
-        <c:axId val="149504000"/>
+        <c:axId val="206141016"/>
+        <c:axId val="206145328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149505960"/>
+        <c:axId val="206141016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149504000"/>
+        <c:crossAx val="206145328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2083,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149504000"/>
+        <c:axId val="206145328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,7 +2262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149505960"/>
+        <c:crossAx val="206141016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3778,7 +3850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3790,23 +3862,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="14.4">
       <c r="B2" s="2" t="s">
@@ -4181,23 +4253,23 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:25" ht="14.4">
       <c r="B19" s="2" t="s">
@@ -4563,22 +4635,22 @@
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="14.4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
     </row>
     <row r="35" spans="1:16" ht="14.4">
       <c r="P35" s="2"/>
@@ -4590,22 +4662,22 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" ht="14.4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
     </row>
     <row r="39" spans="1:16" ht="14.4">
       <c r="P39" s="2"/>
@@ -4617,22 +4689,22 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" ht="14.4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
     </row>
     <row r="43" spans="1:16" ht="14.4">
       <c r="P43" s="2"/>
@@ -7525,8 +7597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -7556,20 +7628,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -7851,22 +7923,22 @@
     <row r="15" spans="1:23" ht="14.4">
       <c r="A15" s="2"/>
       <c r="F15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -7957,7 +8029,7 @@
     <row r="20" spans="1:23" ht="14.25" customHeight="1">
       <c r="A20" s="2"/>
       <c r="F20" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>25</v>
@@ -7984,27 +8056,27 @@
     <row r="21" spans="1:23" ht="14.4">
       <c r="A21" s="2"/>
       <c r="F21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -8032,10 +8104,10 @@
       <c r="K22" s="14">
         <v>0.43440000000000001</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -8045,10 +8117,10 @@
     </row>
     <row r="23" spans="1:23" ht="14.4">
       <c r="A23" s="2"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -8059,7 +8131,7 @@
     <row r="24" spans="1:23" ht="14.4">
       <c r="A24" s="2"/>
       <c r="F24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -8141,10 +8213,10 @@
         <v>28</v>
       </c>
       <c r="J27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -8157,7 +8229,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="14">
         <v>4.82E-2</v>
@@ -8171,7 +8243,7 @@
       <c r="J28" s="14">
         <v>0.2969</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="21">
         <v>0.2969</v>
       </c>
       <c r="L28" s="11"/>
@@ -8195,7 +8267,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -8219,7 +8291,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="22"/>
+      <c r="N31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="14.4">
       <c r="A32" s="4"/>
@@ -8308,10 +8380,10 @@
         <v>28</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
@@ -8332,22 +8404,22 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -8514,10 +8586,10 @@
         <v>28</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -8539,22 +8611,22 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -8631,6 +8703,24 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
+      <c r="F44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -8646,12 +8736,24 @@
     </row>
     <row r="45" spans="1:23" ht="14.4">
       <c r="A45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="F45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -8667,12 +8769,24 @@
     </row>
     <row r="46" spans="1:23" ht="14.4">
       <c r="A46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="F46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8688,12 +8802,24 @@
     </row>
     <row r="47" spans="1:23" ht="14.4">
       <c r="A47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="F47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -8709,12 +8835,24 @@
     </row>
     <row r="48" spans="1:23" ht="14.4">
       <c r="A48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="F48" s="14">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="H48" s="19">
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0.43809999999999999</v>
+      </c>
+      <c r="J48" s="19">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="K48" s="19">
+        <v>0.40760000000000002</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -28742,43 +28880,43 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="D7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:5">
